--- a/MATLAB files/ValidationOutput/stdev - Copy.xlsx
+++ b/MATLAB files/ValidationOutput/stdev - Copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilizador\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joao Cunha\Documents\Projects\universal-robots-kinematics\MATLAB files\ValidationOutput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C0B450-C624-423D-B6B7-19048A3CBE65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7D1935-6972-445B-906B-464B963C0E3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1332" yWindow="2580" windowWidth="23412" windowHeight="14088" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5376" yWindow="5376" windowWidth="34560" windowHeight="18744" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -408,7 +408,7 @@
   <dimension ref="A1:M517"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10:M14"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
